--- a/src/test/resources/TestData/Credentials.xlsx
+++ b/src/test/resources/TestData/Credentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\eclipse-workspace\CollegeProject\LiveProject\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CFF65A-D6CE-4191-94BC-881E552ABEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF629B30-3F41-4E35-BAE5-CEC6CFFB6B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,7 +501,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/src/test/resources/TestData/Credentials.xlsx
+++ b/src/test/resources/TestData/Credentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\eclipse-workspace\CollegeProject\LiveProject\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF629B30-3F41-4E35-BAE5-CEC6CFFB6B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62579E9A-65E3-4788-8B17-473D22BF3FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="49">
   <si>
     <t>Username</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Scenario 4 -&gt; Correct Username and Correct Password combination</t>
+  </si>
+  <si>
+    <t>Your password is incorrect</t>
   </si>
 </sst>
 </file>
@@ -501,9 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -576,7 +577,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -614,7 +615,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -652,7 +653,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
